--- a/jyx2/Assets/Mods/JYX2/Configs/人物.xlsx
+++ b/jyx2/Assets/Mods/JYX2/Configs/人物.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BaiduNetdiskDownload\jynew\jyx2\Assets\Mods\JYX2\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{657BB898-1243-4E3E-A3D2-A7003FDDA20C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92FE3D0A-37D8-4A1B-A66A-ABD06A08D751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="516">
   <si>
     <t>Id</t>
   </si>
@@ -1614,19 +1614,6 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>神雕</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
       <t>灵物</t>
     </r>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -1712,32 +1699,6 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>王语嫣</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>神仙姐姐</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
       <t>扫地僧</t>
     </r>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -1818,6 +1779,10 @@
       </rPr>
       <t>软体娃娃</t>
     </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>神雕</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -2304,10 +2269,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AP337"/>
+  <dimension ref="A1:AP336"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A310" workbookViewId="0">
-      <selection activeCell="K332" sqref="K332"/>
+    <sheetView tabSelected="1" topLeftCell="A309" workbookViewId="0">
+      <selection activeCell="D327" sqref="D327"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -42784,11 +42749,11 @@
       <c r="C327" s="2">
         <v>0</v>
       </c>
-      <c r="D327" s="2" t="s">
+      <c r="D327" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="E327" s="2" t="s">
         <v>501</v>
-      </c>
-      <c r="E327" s="2" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="328" spans="1:41" x14ac:dyDescent="0.35">
@@ -42802,10 +42767,10 @@
         <v>0</v>
       </c>
       <c r="D328" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="E328" s="2" t="s">
         <v>503</v>
-      </c>
-      <c r="E328" s="2" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="329" spans="1:41" x14ac:dyDescent="0.35">
@@ -42819,10 +42784,10 @@
         <v>0</v>
       </c>
       <c r="D329" s="6" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E329" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="330" spans="1:41" x14ac:dyDescent="0.35">
@@ -42836,10 +42801,10 @@
         <v>0</v>
       </c>
       <c r="D330" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="E330" s="2" t="s">
         <v>506</v>
-      </c>
-      <c r="E330" s="2" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="331" spans="1:41" x14ac:dyDescent="0.35">
@@ -42853,112 +42818,95 @@
         <v>0</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E331" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="332" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A332" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B332" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C332" s="2">
         <v>0</v>
       </c>
       <c r="D332" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="E332" s="2" t="s">
         <v>509</v>
-      </c>
-      <c r="E332" s="2" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="333" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A333" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B333" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C333" s="2">
         <v>0</v>
       </c>
       <c r="D333" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="E333" s="2" t="s">
         <v>511</v>
-      </c>
-      <c r="E333" s="2" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="334" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A334" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B334" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C334" s="2">
         <v>0</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E334" s="2" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
     </row>
     <row r="335" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A335" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B335" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C335" s="2">
         <v>0</v>
       </c>
       <c r="D335" s="2" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E335" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="336" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A336" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B336" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C336" s="2">
         <v>0</v>
       </c>
       <c r="D336" s="2" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E336" s="2" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A337" s="2">
-        <v>332</v>
-      </c>
-      <c r="B337" s="2">
-        <v>114</v>
-      </c>
-      <c r="C337" s="2">
-        <v>0</v>
-      </c>
-      <c r="D337" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="E337" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
   </sheetData>
